--- a/test.xlsx
+++ b/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHUB\bx2sapi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="9792"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>(I)figure(I can save money)</t>
   </si>
@@ -22,9 +27,6 @@
     <t>[ʹfıgǝ]</t>
   </si>
   <si>
-    <t>(я полагаю, кажется вероятным(я могу сэкономить деньги)</t>
-  </si>
-  <si>
     <t>I figure I can save money.</t>
   </si>
   <si>
@@ -44,12 +46,21 @@
   </si>
   <si>
     <t>Я пробовала это и получила 10 фунтов в проблемных местах.</t>
+  </si>
+  <si>
+    <t>платить(за секс) [комментарий]</t>
+  </si>
+  <si>
+    <t>pay(for sex)</t>
+  </si>
+  <si>
+    <t>я полагаю, кажется вероятным(я могу сэкономить деньги)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -92,14 +103,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,9 +151,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,9 +186,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,9 +238,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,14 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -401,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -424,31 +477,39 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
